--- a/medicine/Enfance/Alain_Serge_Dzotap/Alain_Serge_Dzotap.xlsx
+++ b/medicine/Enfance/Alain_Serge_Dzotap/Alain_Serge_Dzotap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Serge Dzotap, né en 1978 à Bafoussam, est un auteur et écrivain camerounais. Il est spécialisé dans la littérature pour enfants et de jeunesse. Il est l'auteur de Adi de Boutanga.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Alain Serge est né en 1978 à Bafoussam dans la Région de l'Ouest du Cameroun[1].
-Vie de famille
-Issu de l'ethnie Batoufam, il est le cadet d'une fratrie de dix enfants[2].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Serge est né en 1978 à Bafoussam dans la Région de l'Ouest du Cameroun.
 </t>
         </is>
       </c>
@@ -542,55 +557,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie de famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issu de l'ethnie Batoufam, il est le cadet d'une fratrie de dix enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alain_Serge_Dzotap</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Serge_Dzotap</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Petit Hippo et son stylo magique, avec Philippe de Kemmeter, Bayard jeunesse, 2010
 Tu sais que je t'aime très fort, illustrations d'Anne-Catherine De Boel, Pastel, 2013
 Le roi Njoya : un génial inventeur, illustré par Pat Masioni, Cauris livres, 2015
-Le roi et le premier venu[3], illustrations d'Anne-Catherine De Boel, Pastel, 2017
+Le roi et le premier venu, illustrations d'Anne-Catherine De Boel, Pastel, 2017
 Monstre glouton, avec Olivia Cosneau, Sarbacane, 2018
 La soupe aux cailloux moelleux', illustrations d'Irène Schoch, les Éditions des Éléphants, 2019
 Adi de Boutanga, avec Marc Daniau, Albin Michel jeunesse, 2019
 Petit Éléphant et Ndjou-Ndjou Kalaba, avec Ana Zurita, Circonflexe, 2020
 Le cadeau, illustrations de Delphine Renon, les Éditions des Éléphants, 2020
 Djou et son épouvantail magique, illustrations de Kammo Melachi François, Culture Sud, 2021
-Capitaine Bébé ![4], avec Brice Postma Uzel, Sarbacane, 2021</t>
+Capitaine Bébé !, avec Brice Postma Uzel, Sarbacane, 2021</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alain_Serge_Dzotap</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alain_Serge_Dzotap</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2013 : White Ravens de la Bibliothèque internationale de la jeunesse de Munich[2]
-2014 : Mention spéciale, prix Saint-Exupéry[5] Valeurs Jeunesse
-2016 : médaille de chevalier de l’ordre du mérite au Cameroun[2]
-2022 : Sélection Prix Sorcières[6] Catégorie Carrément beau mini pour Capitaine Bébé !, illustrations de Brice Postma Uzel</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2013 : White Ravens de la Bibliothèque internationale de la jeunesse de Munich
+2014 : Mention spéciale, prix Saint-Exupéry Valeurs Jeunesse
+2016 : médaille de chevalier de l’ordre du mérite au Cameroun
+2022 : Sélection Prix Sorcières Catégorie Carrément beau mini pour Capitaine Bébé !, illustrations de Brice Postma Uzel</t>
         </is>
       </c>
     </row>
